--- a/data/ship_eff+transportwork.xlsx
+++ b/data/ship_eff+transportwork.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Average transport work per ship type</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Marine Transportation and Energy Use</t>
+  </si>
+  <si>
+    <t>Til thesis</t>
   </si>
 </sst>
 </file>
@@ -332,16 +335,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161294</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>94696</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>267111</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -358,8 +361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="3286125"/>
-          <a:ext cx="5047619" cy="4428571"/>
+          <a:off x="4914901" y="3305176"/>
+          <a:ext cx="3886610" cy="3409950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -373,13 +376,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256688</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>8917</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546279</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -396,8 +399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="3333750"/>
-          <a:ext cx="3895238" cy="4866667"/>
+          <a:off x="1238250" y="3333751"/>
+          <a:ext cx="2965629" cy="3705224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,16 +411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>494226</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190104</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -434,8 +437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11410950" y="3495675"/>
-          <a:ext cx="8590476" cy="3171429"/>
+          <a:off x="8924925" y="3188198"/>
+          <a:ext cx="6972300" cy="2574031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -446,16 +449,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>96164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>361067</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>170952</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -472,8 +475,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="8001000"/>
-          <a:ext cx="7066667" cy="3980952"/>
+          <a:off x="4924425" y="7144664"/>
+          <a:ext cx="5391150" cy="3037062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84671</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="6614278"/>
+          <a:ext cx="4666196" cy="3643324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -751,7 +792,7 @@
   <dimension ref="B3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AK17"/>
+  <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,12 +1967,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" t="s">
+      <c r="I17" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/ship_eff+transportwork.xlsx
+++ b/data/ship_eff+transportwork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="averagetransport work" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Average transport work per ship type</t>
   </si>
@@ -40,9 +40,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>tonne-NM</t>
-  </si>
-  <si>
     <t>Tils thesis</t>
   </si>
   <si>
@@ -185,12 +182,27 @@
   </si>
   <si>
     <t>Til thesis</t>
+  </si>
+  <si>
+    <t>gigatonne-NM</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>ton*km/MJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,11 +240,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H6"/>
+  <dimension ref="B2:AJ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,18 +816,32 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -831,21 +858,257 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3000000000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7000000000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>500000000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4000000000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>300000000</v>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>+B6*$I$3</f>
+        <v>5.556</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:F7" si="0">+C6*$I$3</f>
+        <v>12.964</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF46" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI46" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ46" s="4">
+        <v>0.55559999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -859,127 +1122,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AH5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AI5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AK5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -997,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1089,22 +1357,22 @@
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1199,7 +1467,7 @@
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1232,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1309,7 +1577,7 @@
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1387,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AC9">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AE9">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1419,7 +1687,7 @@
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1482,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Y10">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="Z10">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AA10">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1529,7 +1797,7 @@
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1622,24 +1890,24 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AH11">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AI11">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AJ11">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AK11">
-        <v>0.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1732,24 +2000,24 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AH12">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AI12">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AJ12">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="AK12">
-        <v>0.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1859,7 +2127,7 @@
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1907,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1969,15 +2237,15 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/ship_eff+transportwork.xlsx
+++ b/data/ship_eff+transportwork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="averagetransport work" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>Average transport work per ship type</t>
   </si>
@@ -195,6 +195,84 @@
   <si>
     <t>ton*km/MJ</t>
   </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>0-999</t>
+  </si>
+  <si>
+    <t>1000-1999</t>
+  </si>
+  <si>
+    <t>2000-2999</t>
+  </si>
+  <si>
+    <t>3000-4999</t>
+  </si>
+  <si>
+    <t>5000-7999</t>
+  </si>
+  <si>
+    <t>8000+</t>
+  </si>
+  <si>
+    <t>ton-NM</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>Bulk carrier</t>
+  </si>
+  <si>
+    <t>0-9999</t>
+  </si>
+  <si>
+    <t>10000-34999</t>
+  </si>
+  <si>
+    <t>35000-59999</t>
+  </si>
+  <si>
+    <t>60000-99999</t>
+  </si>
+  <si>
+    <t>100000-199999</t>
+  </si>
+  <si>
+    <t>200000+</t>
+  </si>
+  <si>
+    <t>general cargo</t>
+  </si>
+  <si>
+    <t>0-4999</t>
+  </si>
+  <si>
+    <t>5000-9999</t>
+  </si>
+  <si>
+    <t>10000+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulk </t>
+  </si>
+  <si>
+    <t>rough average size</t>
+  </si>
+  <si>
+    <t>3000 TEU</t>
+  </si>
+  <si>
+    <t>*based on table 9.1 and table 72 and 73</t>
+  </si>
+  <si>
+    <t>80000 dwt</t>
+  </si>
+  <si>
+    <t>panamax</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +291,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,18 +322,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,16 +359,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>370771</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>75843</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -293,8 +385,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12420600" y="1981200"/>
-          <a:ext cx="5628571" cy="2857143"/>
+          <a:off x="419100" y="3293534"/>
+          <a:ext cx="5666671" cy="2857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,16 +397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392642</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>140758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>485099</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>141865</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>315766</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -331,8 +423,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7267575" y="66675"/>
-          <a:ext cx="5409524" cy="8076190"/>
+          <a:off x="13367809" y="140758"/>
+          <a:ext cx="5447624" cy="8076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109357</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>124119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7408334" y="3915833"/>
+          <a:ext cx="5676190" cy="6114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,21 +932,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AJ46"/>
+  <dimension ref="A2:AJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I2">
         <v>1</v>
       </c>
@@ -824,7 +960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -835,13 +971,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="1"/>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -857,8 +996,17 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5">
+        <v>2012</v>
+      </c>
+      <c r="O5">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -874,8 +1022,31 @@
       <c r="F6" s="3">
         <v>0.3</v>
       </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5">
+        <v>179809363</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="N6">
+        <f>+L6*M6</f>
+        <v>39558059.859999999</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="P6">
+        <f>+L6*O6</f>
+        <v>39558059.859999999</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f>+B6*$I$3</f>
         <v>5.556</v>
@@ -889,15 +1060,352 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f>+E6*$I$3</f>
         <v>7.4080000000000004</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0.55559999999999998</v>
       </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="5">
+        <v>578339367</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N15" si="1">+L7*M7</f>
+        <v>144584841.75</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P17" si="2">+L7*O7</f>
+        <v>115667873.40000001</v>
+      </c>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7000000000</v>
+      </c>
+      <c r="C8" s="5">
+        <f>+SUM(N12:N17)</f>
+        <v>5207608850.96</v>
+      </c>
+      <c r="E8" s="5">
+        <f>+SUM(N6:N11)</f>
+        <v>2033999167.0539999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1480205694</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>207228797.16000003</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>266437024.91999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2050</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7000000000</v>
+      </c>
+      <c r="C9" s="5">
+        <f>+SUM(P12:P17)</f>
+        <v>5599732634.3800001</v>
+      </c>
+      <c r="E9" s="5">
+        <f>+SUM(P6:P11)</f>
+        <v>2700751170.8000002</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2820323533</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>535861471.26999998</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>141016176.65000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <f>+B8/1000000000</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f>+C8/1000000000</f>
+        <v>5.2076088509599998</v>
+      </c>
+      <c r="E10" s="9">
+        <f>+E8/1000000000</f>
+        <v>2.0339991670540001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="5">
+        <v>4233489679</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>465683864.69</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>465683864.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2050</v>
+      </c>
+      <c r="B11">
+        <f>+B9/1000000000</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <f>+C9/1000000000</f>
+        <v>5.5997326343800005</v>
+      </c>
+      <c r="E11" s="9">
+        <f>+E9/1000000000</f>
+        <v>2.7007511708000003</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="5">
+        <v>6968284047</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>641082132.324</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>1672388171.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="5">
+        <v>68226787</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>682267.87</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>682267.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1268561872</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>114170568.47999999</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>76113712.319999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2243075236</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>493476551.92000002</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>448615047.20000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3821361703</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>993554042.78000009</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>878913191.69000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="5">
+        <v>7763260284</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="N16">
+        <f>+L16*M16</f>
+        <v>2406610688.04</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>3105304113.6000004</v>
+      </c>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="5">
+        <v>10901043017</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="N17">
+        <f>+L17*M17</f>
+        <v>1199114731.8700001</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>1090104301.7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1512,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2011</v>
+      </c>
       <c r="B46" s="4">
         <v>5.556</v>
       </c>
@@ -1108,6 +1619,7110 @@
         <v>7.4080000000000004</v>
       </c>
       <c r="AJ46" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>+A46+1</f>
+        <v>2012</v>
+      </c>
+      <c r="B47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF47" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG47" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI47" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ47" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ref="A48:A110" si="3">+A47+1</f>
+        <v>2013</v>
+      </c>
+      <c r="B48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF48" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG48" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ48" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+      <c r="B49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF49" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG49" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ49" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF52" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI52" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="B54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF54" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF55" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI55" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF56" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG56" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI56" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ56" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG57" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI57" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ57" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>2023</v>
+      </c>
+      <c r="B58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF58" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI58" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="B59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF59" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI59" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ59" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="B60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF60" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG60" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH60" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI60" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ60" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>2026</v>
+      </c>
+      <c r="B61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF61" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG61" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI61" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ61" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>2027</v>
+      </c>
+      <c r="B62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF62" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG62" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH62" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI62" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ62" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>2028</v>
+      </c>
+      <c r="B63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF63" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG63" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH63" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI63" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ63" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>2029</v>
+      </c>
+      <c r="B64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF64" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG64" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH64" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI64" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ64" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF65" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG65" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH65" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI65" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ65" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>2031</v>
+      </c>
+      <c r="B66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF66" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG66" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH66" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI66" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ66" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>2032</v>
+      </c>
+      <c r="B67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF67" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG67" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH67" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI67" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ67" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>2033</v>
+      </c>
+      <c r="B68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF68" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG68" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH68" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI68" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ68" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>2034</v>
+      </c>
+      <c r="B69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF69" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG69" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH69" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI69" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ69" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="B70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF70" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG70" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH70" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI70" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ70" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>2036</v>
+      </c>
+      <c r="B71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF71" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG71" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH71" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI71" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ71" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>2037</v>
+      </c>
+      <c r="B72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF72" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG72" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH72" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI72" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ72" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>2038</v>
+      </c>
+      <c r="B73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF73" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG73" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH73" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI73" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ73" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>2039</v>
+      </c>
+      <c r="B74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF74" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG74" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH74" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI74" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ74" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF75" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG75" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH75" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI75" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ75" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>2041</v>
+      </c>
+      <c r="B76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF76" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG76" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH76" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI76" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ76" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>2042</v>
+      </c>
+      <c r="B77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF77" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG77" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH77" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI77" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ77" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>2043</v>
+      </c>
+      <c r="B78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF78" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG78" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH78" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI78" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ78" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>2044</v>
+      </c>
+      <c r="B79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF79" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG79" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH79" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI79" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ79" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="B80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF80" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG80" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH80" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI80" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ80" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>2046</v>
+      </c>
+      <c r="B81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF81" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG81" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH81" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ81" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>2047</v>
+      </c>
+      <c r="B82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF82" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ82" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="B83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF83" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG83" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH83" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI83" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ83" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>2049</v>
+      </c>
+      <c r="B84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF84" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH84" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ84" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG85" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH85" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ85" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>2051</v>
+      </c>
+      <c r="B86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF86" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG86" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH86" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI86" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ86" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>2052</v>
+      </c>
+      <c r="B87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF87" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG87" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH87" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI87" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ87" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>2053</v>
+      </c>
+      <c r="B88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF88" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG88" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH88" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI88" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ88" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>2054</v>
+      </c>
+      <c r="B89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF89" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG89" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH89" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI89" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ89" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>2055</v>
+      </c>
+      <c r="B90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF90" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG90" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH90" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI90" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ90" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>2056</v>
+      </c>
+      <c r="B91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF91" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG91" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH91" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI91" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ91" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>2057</v>
+      </c>
+      <c r="B92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF92" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG92" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH92" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI92" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ92" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>2058</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF93" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG93" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH93" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI93" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ93" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>2059</v>
+      </c>
+      <c r="B94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF94" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG94" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH94" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ94" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF95" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>2061</v>
+      </c>
+      <c r="B96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF96" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG96" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH96" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI96" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ96" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>2062</v>
+      </c>
+      <c r="B97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF97" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG97" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH97" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ97" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>2063</v>
+      </c>
+      <c r="B98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF98" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG98" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH98" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ98" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>2064</v>
+      </c>
+      <c r="B99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF99" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG99" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH99" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ99" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>2065</v>
+      </c>
+      <c r="B100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF100" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG100" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ100" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>2066</v>
+      </c>
+      <c r="B101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF101" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG101" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH101" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ101" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>2067</v>
+      </c>
+      <c r="B102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF102" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG102" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH102" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="3"/>
+        <v>2068</v>
+      </c>
+      <c r="B103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF103" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG103" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ103" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="3"/>
+        <v>2069</v>
+      </c>
+      <c r="B104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF104" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG104" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH104" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ104" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="3"/>
+        <v>2070</v>
+      </c>
+      <c r="B105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF105" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG105" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH105" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="3"/>
+        <v>2071</v>
+      </c>
+      <c r="B106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF106" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG106" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH106" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI106" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ106" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="3"/>
+        <v>2072</v>
+      </c>
+      <c r="B107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF107" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG107" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH107" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI107" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ107" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="3"/>
+        <v>2073</v>
+      </c>
+      <c r="B108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF108" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG108" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ108" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="3"/>
+        <v>2074</v>
+      </c>
+      <c r="B109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF109" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG109" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI109" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ109" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="3"/>
+        <v>2075</v>
+      </c>
+      <c r="B110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="C110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="H110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="M110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="O110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="R110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="S110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="U110" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="V110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="W110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="X110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="Z110" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AB110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AE110" s="4">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AF110" s="4">
+        <v>5.556</v>
+      </c>
+      <c r="AG110" s="4">
+        <v>12.964</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AI110" s="4">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="AJ110" s="4">
         <v>0.55559999999999998</v>
       </c>
     </row>

--- a/data/ship_eff+transportwork.xlsx
+++ b/data/ship_eff+transportwork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="averagetransport work" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Average transport work per ship type</t>
   </si>
@@ -67,9 +67,6 @@
     <t>HYG</t>
   </si>
   <si>
-    <t>AMM</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
@@ -272,6 +269,12 @@
   </si>
   <si>
     <t>panamax</t>
+  </si>
+  <si>
+    <t>NHG</t>
+  </si>
+  <si>
+    <t>NHB</t>
   </si>
 </sst>
 </file>
@@ -934,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ110"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -968,16 +971,16 @@
         <v>1.8520000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1"/>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -997,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5">
         <v>2012</v>
@@ -1023,10 +1026,10 @@
         <v>0.3</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" s="5">
         <v>179809363</v>
@@ -1068,7 +1071,7 @@
         <v>0.55559999999999998</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="5">
         <v>578339367</v>
@@ -1104,7 +1107,7 @@
         <v>2033999167.0539999</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="5">
         <v>1480205694</v>
@@ -1140,7 +1143,7 @@
         <v>2700751170.8000002</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="5">
         <v>2820323533</v>
@@ -1177,7 +1180,7 @@
         <v>2.0339991670540001</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="5">
         <v>4233489679</v>
@@ -1214,7 +1217,7 @@
         <v>2.7007511708000003</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="5">
         <v>6968284047</v>
@@ -1236,19 +1239,19 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
       <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
         <v>67</v>
-      </c>
-      <c r="K12" t="s">
-        <v>68</v>
       </c>
       <c r="L12" s="5">
         <v>68226787</v>
@@ -1270,16 +1273,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" s="5">
         <v>1268561872</v>
@@ -1301,7 +1304,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="5">
         <v>2243075236</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="5">
         <v>3821361703</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="5">
         <v>7763260284</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="5">
         <v>10901043017</v>
@@ -1389,20 +1392,20 @@
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s">
         <v>74</v>
-      </c>
-      <c r="K18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.25">
@@ -3858,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="C6:AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,114 +3874,114 @@
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.25">
@@ -4753,7 +4756,7 @@
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4911,69 +4914,179 @@
         <v>0</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>10</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>10</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>5</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>5</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>5</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
@@ -4981,7 +5094,7 @@
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/ship_eff+transportwork.xlsx
+++ b/data/ship_eff+transportwork.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Average transport work per ship type</t>
   </si>
@@ -196,24 +196,6 @@
     <t>Container</t>
   </si>
   <si>
-    <t>0-999</t>
-  </si>
-  <si>
-    <t>1000-1999</t>
-  </si>
-  <si>
-    <t>2000-2999</t>
-  </si>
-  <si>
-    <t>3000-4999</t>
-  </si>
-  <si>
-    <t>5000-7999</t>
-  </si>
-  <si>
-    <t>8000+</t>
-  </si>
-  <si>
     <t>ton-NM</t>
   </si>
   <si>
@@ -223,58 +205,40 @@
     <t>Bulk carrier</t>
   </si>
   <si>
-    <t>0-9999</t>
-  </si>
-  <si>
-    <t>10000-34999</t>
-  </si>
-  <si>
-    <t>35000-59999</t>
-  </si>
-  <si>
-    <t>60000-99999</t>
-  </si>
-  <si>
-    <t>100000-199999</t>
-  </si>
-  <si>
-    <t>200000+</t>
-  </si>
-  <si>
-    <t>general cargo</t>
-  </si>
-  <si>
-    <t>0-4999</t>
-  </si>
-  <si>
-    <t>5000-9999</t>
-  </si>
-  <si>
-    <t>10000+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulk </t>
-  </si>
-  <si>
-    <t>rough average size</t>
-  </si>
-  <si>
-    <t>3000 TEU</t>
-  </si>
-  <si>
-    <t>*based on table 9.1 and table 72 and 73</t>
-  </si>
-  <si>
-    <t>80000 dwt</t>
-  </si>
-  <si>
-    <t>panamax</t>
-  </si>
-  <si>
     <t>NHG</t>
   </si>
   <si>
     <t>NHB</t>
+  </si>
+  <si>
+    <t>Third IMO study 2014</t>
+  </si>
+  <si>
+    <t>oil tanker</t>
+  </si>
+  <si>
+    <t>General cargo</t>
+  </si>
+  <si>
+    <t>dwt</t>
+  </si>
+  <si>
+    <t>teu</t>
+  </si>
+  <si>
+    <t>active IHSF</t>
+  </si>
+  <si>
+    <t>average dwt</t>
+  </si>
+  <si>
+    <t>average installed power kW</t>
+  </si>
+  <si>
+    <t>average teu</t>
+  </si>
+  <si>
+    <t>average over size</t>
   </si>
 </sst>
 </file>
@@ -329,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
@@ -340,6 +304,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,13 +329,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>55034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>370771</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>54677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -400,16 +365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>392642</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>140758</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>43392</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>315766</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25448</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>580349</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,46 +391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13367809" y="140758"/>
+          <a:off x="16553392" y="363008"/>
           <a:ext cx="5447624" cy="8076190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>275167</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>109357</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>124119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7408334" y="3915833"/>
-          <a:ext cx="5676190" cy="6114286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AJ110"/>
+  <dimension ref="A2:AK115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,12 +877,13 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I2">
         <v>1</v>
       </c>
@@ -963,7 +891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -974,16 +902,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -999,17 +930,23 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
       <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5">
         <v>2012</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1025,41 +962,44 @@
       <c r="F6" s="3">
         <v>0.3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>999</v>
+      </c>
+      <c r="M6" s="5">
         <v>179809363</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>0.22</v>
       </c>
-      <c r="N6">
-        <f>+L6*M6</f>
+      <c r="O6">
+        <f>+M6*N6</f>
         <v>39558059.859999999</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>0.22</v>
       </c>
-      <c r="P6">
-        <f>+L6*O6</f>
+      <c r="Q6">
+        <f>+M6*P6</f>
         <v>39558059.859999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <f>+B6*$I$3</f>
         <v>5.556</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:F7" si="0">+C6*$I$3</f>
+        <f>+C6*$I$3</f>
         <v>12.964</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7:F7" si="0">+D6*$I$3</f>
         <v>0.92600000000000005</v>
       </c>
       <c r="E7" s="4">
@@ -1070,28 +1010,31 @@
         <f t="shared" si="0"/>
         <v>0.55559999999999998</v>
       </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>1999</v>
+      </c>
+      <c r="M7" s="5">
         <v>578339367</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>0.25</v>
       </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N15" si="1">+L7*M7</f>
+      <c r="O7">
+        <f t="shared" ref="O7:O9" si="1">+M7*N7</f>
         <v>144584841.75</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>0.2</v>
       </c>
-      <c r="P7">
-        <f t="shared" ref="P7:P17" si="2">+L7*O7</f>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q20" si="2">+M7*P7</f>
         <v>115667873.40000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -1099,35 +1042,38 @@
         <v>7000000000</v>
       </c>
       <c r="C8" s="5">
-        <f>+SUM(N12:N17)</f>
+        <f>+SUM(O17:O22)</f>
         <v>5207608850.96</v>
       </c>
       <c r="E8" s="5">
-        <f>+SUM(N6:N11)</f>
-        <v>2033999167.0539999</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="5">
+        <f>+SUM(O6:O13)</f>
+        <v>2033999167.0540001</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>2999</v>
+      </c>
+      <c r="M8" s="5">
         <v>1480205694</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="1"/>
         <v>207228797.16000003</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>0.18</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="2"/>
         <v>266437024.91999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2050</v>
       </c>
@@ -1135,35 +1081,38 @@
         <v>7000000000</v>
       </c>
       <c r="C9" s="5">
-        <f>+SUM(P12:P17)</f>
+        <f>+SUM(Q17:Q22)</f>
         <v>5599732634.3800001</v>
       </c>
       <c r="E9" s="5">
-        <f>+SUM(P6:P11)</f>
-        <v>2700751170.8000002</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="5">
+        <f>+SUM(Q6:Q13)</f>
+        <v>2700751170.7999997</v>
+      </c>
+      <c r="K9">
+        <v>3000</v>
+      </c>
+      <c r="L9">
+        <v>4999</v>
+      </c>
+      <c r="M9" s="5">
         <v>2820323533</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>0.19</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="1"/>
         <v>535861471.26999998</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>0.05</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="2"/>
         <v>141016176.65000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1179,28 +1128,31 @@
         <f>+E8/1000000000</f>
         <v>2.0339991670540001</v>
       </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10">
+        <v>5000</v>
+      </c>
+      <c r="L10">
+        <v>7999</v>
+      </c>
+      <c r="M10" s="5">
         <v>4233489679</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>0.11</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="O10">
+        <f>+M10*N10</f>
         <v>465683864.69</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>0.11</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="2"/>
         <v>465683864.69</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2050</v>
       </c>
@@ -1214,423 +1166,586 @@
       </c>
       <c r="E11" s="9">
         <f>+E9/1000000000</f>
-        <v>2.7007511708000003</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="5">
+        <v>2.7007511707999998</v>
+      </c>
+      <c r="K11">
+        <v>8000</v>
+      </c>
+      <c r="L11">
+        <v>11999</v>
+      </c>
+      <c r="M11" s="5">
         <v>6968284047</v>
       </c>
-      <c r="M11" s="8">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>641082132.324</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="P11">
+      <c r="N11" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O11">
+        <f>+M11*N11</f>
+        <v>487779883.29000002</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="2"/>
-        <v>1672388171.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
+        <v>696828404.70000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>12000</v>
+      </c>
+      <c r="L12">
+        <v>14500</v>
+      </c>
+      <c r="M12" s="5">
+        <v>6968284047</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12" si="3">+M12*N12</f>
+        <v>139365680.94</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>627145564.23000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>14500</v>
+      </c>
+      <c r="L13">
+        <v>14500</v>
+      </c>
+      <c r="M13" s="5">
+        <v>6968284047</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="O13" s="10">
+        <f>+M13*N13</f>
+        <v>13936568.094000001</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>348414202.35000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="10">
+        <f>+AVERAGE(K6:L6)*N6+AVERAGE(K7:L7)*N7+AVERAGE(K8:L8)*N8+AVERAGE(K9:L9)*N9+AVERAGE(K10:L10)*N10+AVERAGE(K11:L11)*N11+AVERAGE(K12:L12)*N12+AVERAGE(K13:L13)*N13</f>
+        <v>3303.51</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10">
+        <f>+AVERAGE(K6:L6)*P6+AVERAGE(K7:L7)*P7+AVERAGE(K8:L8)*P8+AVERAGE(K9:L9)*P9+AVERAGE(K10:L10)*P10+AVERAGE(K11:L11)*P11+AVERAGE(K12:L12)*P12+AVERAGE(K13:L13)*P13</f>
+        <v>4692.0700000000006</v>
+      </c>
+      <c r="R14" s="10">
+        <f>+AVERAGE(N14:P14)</f>
+        <v>3997.7900000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M15" s="5"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
         <v>66</v>
       </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16">
+        <v>2012</v>
+      </c>
+      <c r="P16">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>9999</v>
+      </c>
+      <c r="M17" s="5">
         <v>68226787</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N17" s="6">
         <v>0.01</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
+      <c r="O17">
+        <f>+M17*N17</f>
         <v>682267.87</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P17" s="6">
         <v>0.01</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
+      <c r="Q17">
+        <f>+M17*P17</f>
         <v>682267.87</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>10000</v>
+      </c>
+      <c r="L18">
+        <v>34999</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1268561872</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O18">
+        <f>+M18*N18</f>
+        <v>114170568.47999999</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="Q18">
+        <f>+M18*P18</f>
+        <v>76113712.319999993</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>35000</v>
+      </c>
+      <c r="L19">
+        <v>59999</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2243075236</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="O19">
+        <f>+M19*N19</f>
+        <v>493476551.92000002</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <f>+M19*P19</f>
+        <v>448615047.20000005</v>
+      </c>
+    </row>
+    <row r="20" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>60000</v>
+      </c>
+      <c r="L20">
+        <v>99999</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3821361703</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="O20">
+        <f>+M20*N20</f>
+        <v>993554042.78000009</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="Q20">
+        <f>+M20*P20</f>
+        <v>878913191.69000006</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>100000</v>
+      </c>
+      <c r="L21">
+        <v>199999</v>
+      </c>
+      <c r="M21" s="5">
+        <v>7763260284</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="O21">
+        <f>+M21*N21</f>
+        <v>2406610688.04</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q21">
+        <f>+M21*P21</f>
+        <v>3105304113.6000004</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>200000</v>
+      </c>
+      <c r="L22">
+        <v>400000</v>
+      </c>
+      <c r="M22" s="5">
+        <v>10901043017</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="O22">
+        <f>+M22*N22</f>
+        <v>1199114731.8700001</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q22">
+        <f>+M22*P22</f>
+        <v>1090104301.7</v>
+      </c>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="10">
+        <f>+AVERAGE(K17:L17)*N17+AVERAGE(K18:L18)*N18+AVERAGE(K19:L19)*N19+AVERAGE(K20:L20)*N20+AVERAGE(K21:L21)*N21+AVERAGE(K22:L22)*N22</f>
+        <v>112824.55499999999</v>
+      </c>
+      <c r="P23" s="10">
+        <f>+AVERAGE(K17:L17)*P17+AVERAGE(K18:L18)*P18+AVERAGE(K19:L19)*P19+AVERAGE(K20:L20)*P20+AVERAGE(K21:L21)*P21+AVERAGE(K22:L22)*P22</f>
+        <v>119299.55</v>
+      </c>
+      <c r="R23" s="10">
+        <f>+AVERAGE(N23:P23)</f>
+        <v>116062.05249999999</v>
+      </c>
+    </row>
+    <row r="24" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="N24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25">
+        <v>2012</v>
+      </c>
+      <c r="P25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>4999</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>5000</v>
+      </c>
+      <c r="L27">
+        <v>9999</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>10000</v>
+      </c>
+      <c r="L28">
+        <v>19999</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>20000</v>
+      </c>
+      <c r="L29">
+        <v>59999</v>
+      </c>
+      <c r="N29" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>60000</v>
+      </c>
+      <c r="L30">
+        <v>79999</v>
+      </c>
+      <c r="N30" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P30" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>80000</v>
+      </c>
+      <c r="L31">
+        <v>119999</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="32" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>120000</v>
+      </c>
+      <c r="L32">
+        <v>199999</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>200000</v>
+      </c>
+      <c r="L33">
+        <v>200000</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="10">
+        <f>+AVERAGE(K26:L26)*N26+AVERAGE(K27:L27)*N27+AVERAGE(K28:L28)*N28+AVERAGE(K29:L29)*N29+AVERAGE(K30:L30)*N30+AVERAGE(K31:L31)*N31+AVERAGE(K32:L32)*N32+AVERAGE(K33:L33)*N33</f>
+        <v>144149.715</v>
+      </c>
+      <c r="P34" s="10">
+        <f>+AVERAGE(K26:L26)*P26+AVERAGE(K27:L27)*P27+AVERAGE(K28:L28)*P28+AVERAGE(K29:L29)*P29+AVERAGE(K30:L30)*P30+AVERAGE(K31:L31)*P31+AVERAGE(K32:L32)*P32+AVERAGE(K33:L33)*P33</f>
+        <v>144149.715</v>
+      </c>
+      <c r="R34" s="10">
+        <f>+AVERAGE(N34:P34)</f>
+        <v>144149.715</v>
+      </c>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="N35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="5">
-        <v>1268561872</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>114170568.47999999</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>76113712.319999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
+      <c r="O36" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="5">
-        <v>2243075236</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>493476551.92000002</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>448615047.20000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
+      <c r="P36" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="5">
-        <v>3821361703</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>993554042.78000009</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>878913191.69000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="5">
-        <v>7763260284</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="N16">
-        <f>+L16*M16</f>
-        <v>2406610688.04</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>3105304113.6000004</v>
-      </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>4999</v>
+      </c>
+      <c r="M37">
+        <v>76945792</v>
+      </c>
+      <c r="N37">
+        <v>11620</v>
+      </c>
+      <c r="O37">
+        <v>1925</v>
+      </c>
+      <c r="P37">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="38" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>5000</v>
+      </c>
+      <c r="L38">
+        <v>9999</v>
+      </c>
+      <c r="M38">
+        <v>365344150</v>
+      </c>
+      <c r="N38">
+        <v>2894</v>
+      </c>
+      <c r="O38">
+        <v>7339</v>
+      </c>
+      <c r="P38">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="39" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>10000</v>
+      </c>
+      <c r="M39">
+        <v>866510887</v>
+      </c>
+      <c r="N39">
+        <v>1972</v>
+      </c>
+      <c r="O39">
+        <v>22472</v>
+      </c>
+      <c r="P39">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="5">
-        <v>10901043017</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="N17">
-        <f>+L17*M17</f>
-        <v>1199114731.8700001</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>1090104301.7</v>
-      </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-    </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-    </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-    </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-    </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-    </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-    </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="O40" s="10">
+        <f>+(N37/SUM(N37:N39))*O37+(N38/SUM(N37:N39))*O38+(N39/SUM(N37:N39))*O39</f>
+        <v>5333.1523717093296</v>
+      </c>
+      <c r="P40" s="10">
+        <f>+(N37/SUM(N37:N39))*P37+(N38/SUM(N37:N39))*P38+(N39/SUM(N37:N39))*P39</f>
+        <v>2258.8351328399854</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1666,8 +1781,9 @@
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
-    </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK51" s="4"/>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1703,8 +1819,9 @@
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
-    </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK52" s="4"/>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1740,8 +1857,9 @@
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
-    </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK53" s="4"/>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1777,8 +1895,9 @@
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
-    </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK54" s="4"/>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1814,8 +1933,9 @@
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
-    </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK55" s="4"/>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1851,8 +1971,9 @@
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
-    </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1888,8 +2009,9 @@
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
-    </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK57" s="4"/>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1925,8 +2047,9 @@
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
-    </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK58" s="4"/>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1962,8 +2085,9 @@
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
-    </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK59" s="4"/>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1999,8 +2123,9 @@
       <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
-    </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK60" s="4"/>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2036,8 +2161,9 @@
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
-    </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK61" s="4"/>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2073,8 +2199,9 @@
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
-    </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK62" s="4"/>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2110,8 +2237,9 @@
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
-    </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK63" s="4"/>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2147,8 +2275,9 @@
       <c r="AH64" s="4"/>
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
-    </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK64" s="4"/>
+    </row>
+    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2184,8 +2313,9 @@
       <c r="AH65" s="4"/>
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
-    </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK65" s="4"/>
+    </row>
+    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2221,8 +2351,9 @@
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
-    </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK66" s="4"/>
+    </row>
+    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2258,8 +2389,9 @@
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
-    </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK67" s="4"/>
+    </row>
+    <row r="68" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2295,8 +2427,9 @@
       <c r="AH68" s="4"/>
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
-    </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK68" s="4"/>
+    </row>
+    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -2332,8 +2465,9 @@
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
-    </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK69" s="4"/>
+    </row>
+    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2369,8 +2503,9 @@
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
-    </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK70" s="4"/>
+    </row>
+    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2406,8 +2541,9 @@
       <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
-    </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK71" s="4"/>
+    </row>
+    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2443,8 +2579,9 @@
       <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
-    </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK72" s="4"/>
+    </row>
+    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2480,8 +2617,9 @@
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
-    </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK73" s="4"/>
+    </row>
+    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2517,8 +2655,9 @@
       <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
-    </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK74" s="4"/>
+    </row>
+    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2554,8 +2693,9 @@
       <c r="AH75" s="4"/>
       <c r="AI75" s="4"/>
       <c r="AJ75" s="4"/>
-    </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK75" s="4"/>
+    </row>
+    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2591,8 +2731,9 @@
       <c r="AH76" s="4"/>
       <c r="AI76" s="4"/>
       <c r="AJ76" s="4"/>
-    </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK76" s="4"/>
+    </row>
+    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2628,8 +2769,9 @@
       <c r="AH77" s="4"/>
       <c r="AI77" s="4"/>
       <c r="AJ77" s="4"/>
-    </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK77" s="4"/>
+    </row>
+    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2665,8 +2807,9 @@
       <c r="AH78" s="4"/>
       <c r="AI78" s="4"/>
       <c r="AJ78" s="4"/>
-    </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK78" s="4"/>
+    </row>
+    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2702,8 +2845,9 @@
       <c r="AH79" s="4"/>
       <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
-    </row>
-    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK79" s="4"/>
+    </row>
+    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2739,8 +2883,9 @@
       <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4"/>
-    </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK80" s="4"/>
+    </row>
+    <row r="81" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2776,8 +2921,9 @@
       <c r="AH81" s="4"/>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
-    </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK81" s="4"/>
+    </row>
+    <row r="82" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2813,8 +2959,9 @@
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
       <c r="AJ82" s="4"/>
-    </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK82" s="4"/>
+    </row>
+    <row r="83" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2850,8 +2997,9 @@
       <c r="AH83" s="4"/>
       <c r="AI83" s="4"/>
       <c r="AJ83" s="4"/>
-    </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK83" s="4"/>
+    </row>
+    <row r="84" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2887,8 +3035,9 @@
       <c r="AH84" s="4"/>
       <c r="AI84" s="4"/>
       <c r="AJ84" s="4"/>
-    </row>
-    <row r="85" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK84" s="4"/>
+    </row>
+    <row r="85" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2924,8 +3073,9 @@
       <c r="AH85" s="4"/>
       <c r="AI85" s="4"/>
       <c r="AJ85" s="4"/>
-    </row>
-    <row r="86" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK85" s="4"/>
+    </row>
+    <row r="86" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2961,8 +3111,9 @@
       <c r="AH86" s="4"/>
       <c r="AI86" s="4"/>
       <c r="AJ86" s="4"/>
-    </row>
-    <row r="87" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK86" s="4"/>
+    </row>
+    <row r="87" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2998,8 +3149,9 @@
       <c r="AH87" s="4"/>
       <c r="AI87" s="4"/>
       <c r="AJ87" s="4"/>
-    </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK87" s="4"/>
+    </row>
+    <row r="88" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3035,8 +3187,9 @@
       <c r="AH88" s="4"/>
       <c r="AI88" s="4"/>
       <c r="AJ88" s="4"/>
-    </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK88" s="4"/>
+    </row>
+    <row r="89" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3072,8 +3225,9 @@
       <c r="AH89" s="4"/>
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
-    </row>
-    <row r="90" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK89" s="4"/>
+    </row>
+    <row r="90" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3109,8 +3263,9 @@
       <c r="AH90" s="4"/>
       <c r="AI90" s="4"/>
       <c r="AJ90" s="4"/>
-    </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK90" s="4"/>
+    </row>
+    <row r="91" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3146,8 +3301,9 @@
       <c r="AH91" s="4"/>
       <c r="AI91" s="4"/>
       <c r="AJ91" s="4"/>
-    </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK91" s="4"/>
+    </row>
+    <row r="92" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3183,8 +3339,9 @@
       <c r="AH92" s="4"/>
       <c r="AI92" s="4"/>
       <c r="AJ92" s="4"/>
-    </row>
-    <row r="93" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK92" s="4"/>
+    </row>
+    <row r="93" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3220,8 +3377,9 @@
       <c r="AH93" s="4"/>
       <c r="AI93" s="4"/>
       <c r="AJ93" s="4"/>
-    </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK93" s="4"/>
+    </row>
+    <row r="94" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3257,8 +3415,9 @@
       <c r="AH94" s="4"/>
       <c r="AI94" s="4"/>
       <c r="AJ94" s="4"/>
-    </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK94" s="4"/>
+    </row>
+    <row r="95" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3294,8 +3453,9 @@
       <c r="AH95" s="4"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
-    </row>
-    <row r="96" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK95" s="4"/>
+    </row>
+    <row r="96" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3331,8 +3491,9 @@
       <c r="AH96" s="4"/>
       <c r="AI96" s="4"/>
       <c r="AJ96" s="4"/>
-    </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK96" s="4"/>
+    </row>
+    <row r="97" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3368,8 +3529,9 @@
       <c r="AH97" s="4"/>
       <c r="AI97" s="4"/>
       <c r="AJ97" s="4"/>
-    </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK97" s="4"/>
+    </row>
+    <row r="98" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3405,8 +3567,9 @@
       <c r="AH98" s="4"/>
       <c r="AI98" s="4"/>
       <c r="AJ98" s="4"/>
-    </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK98" s="4"/>
+    </row>
+    <row r="99" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -3442,8 +3605,9 @@
       <c r="AH99" s="4"/>
       <c r="AI99" s="4"/>
       <c r="AJ99" s="4"/>
-    </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK99" s="4"/>
+    </row>
+    <row r="100" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -3479,8 +3643,9 @@
       <c r="AH100" s="4"/>
       <c r="AI100" s="4"/>
       <c r="AJ100" s="4"/>
-    </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK100" s="4"/>
+    </row>
+    <row r="101" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -3516,8 +3681,9 @@
       <c r="AH101" s="4"/>
       <c r="AI101" s="4"/>
       <c r="AJ101" s="4"/>
-    </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK101" s="4"/>
+    </row>
+    <row r="102" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -3553,8 +3719,9 @@
       <c r="AH102" s="4"/>
       <c r="AI102" s="4"/>
       <c r="AJ102" s="4"/>
-    </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK102" s="4"/>
+    </row>
+    <row r="103" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -3590,8 +3757,9 @@
       <c r="AH103" s="4"/>
       <c r="AI103" s="4"/>
       <c r="AJ103" s="4"/>
-    </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK103" s="4"/>
+    </row>
+    <row r="104" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -3627,8 +3795,9 @@
       <c r="AH104" s="4"/>
       <c r="AI104" s="4"/>
       <c r="AJ104" s="4"/>
-    </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK104" s="4"/>
+    </row>
+    <row r="105" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -3664,8 +3833,9 @@
       <c r="AH105" s="4"/>
       <c r="AI105" s="4"/>
       <c r="AJ105" s="4"/>
-    </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK105" s="4"/>
+    </row>
+    <row r="106" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -3701,8 +3871,9 @@
       <c r="AH106" s="4"/>
       <c r="AI106" s="4"/>
       <c r="AJ106" s="4"/>
-    </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK106" s="4"/>
+    </row>
+    <row r="107" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3738,8 +3909,9 @@
       <c r="AH107" s="4"/>
       <c r="AI107" s="4"/>
       <c r="AJ107" s="4"/>
-    </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK107" s="4"/>
+    </row>
+    <row r="108" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -3775,8 +3947,9 @@
       <c r="AH108" s="4"/>
       <c r="AI108" s="4"/>
       <c r="AJ108" s="4"/>
-    </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK108" s="4"/>
+    </row>
+    <row r="109" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -3812,8 +3985,9 @@
       <c r="AH109" s="4"/>
       <c r="AI109" s="4"/>
       <c r="AJ109" s="4"/>
-    </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK109" s="4"/>
+    </row>
+    <row r="110" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -3849,6 +4023,197 @@
       <c r="AH110" s="4"/>
       <c r="AI110" s="4"/>
       <c r="AJ110" s="4"/>
+      <c r="AK110" s="4"/>
+    </row>
+    <row r="111" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4"/>
+      <c r="AE111" s="4"/>
+      <c r="AF111" s="4"/>
+      <c r="AG111" s="4"/>
+      <c r="AH111" s="4"/>
+      <c r="AI111" s="4"/>
+      <c r="AJ111" s="4"/>
+      <c r="AK111" s="4"/>
+    </row>
+    <row r="112" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4"/>
+      <c r="AF112" s="4"/>
+      <c r="AG112" s="4"/>
+      <c r="AH112" s="4"/>
+      <c r="AI112" s="4"/>
+      <c r="AJ112" s="4"/>
+      <c r="AK112" s="4"/>
+    </row>
+    <row r="113" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="4"/>
+      <c r="AE113" s="4"/>
+      <c r="AF113" s="4"/>
+      <c r="AG113" s="4"/>
+      <c r="AH113" s="4"/>
+      <c r="AI113" s="4"/>
+      <c r="AJ113" s="4"/>
+      <c r="AK113" s="4"/>
+    </row>
+    <row r="114" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4"/>
+      <c r="AF114" s="4"/>
+      <c r="AG114" s="4"/>
+      <c r="AH114" s="4"/>
+      <c r="AI114" s="4"/>
+      <c r="AJ114" s="4"/>
+      <c r="AK114" s="4"/>
+    </row>
+    <row r="115" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4"/>
+      <c r="AE115" s="4"/>
+      <c r="AF115" s="4"/>
+      <c r="AG115" s="4"/>
+      <c r="AH115" s="4"/>
+      <c r="AI115" s="4"/>
+      <c r="AJ115" s="4"/>
+      <c r="AK115" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4756,7 +5121,7 @@
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4866,7 +5231,7 @@
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>0</v>
